--- a/Commishes/excel_sheets/managed_services.xlsx
+++ b/Commishes/excel_sheets/managed_services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://databank2-my.sharepoint.com/personal/mcalvert_databank_com/Documents/Desktop/DB_Commissions/Commishes/excel_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{1D42589E-23E5-44BD-A479-7EAC7368B147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06940004-A5BC-471C-BDC2-FF2ED4B24A13}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{1D42589E-23E5-44BD-A479-7EAC7368B147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F576214-CE17-4061-A749-07BF42AD6811}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{8BFBCE1E-2623-43E7-9C3B-F4DBFD421A32}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8BFBCE1E-2623-43E7-9C3B-F4DBFD421A32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="17">
   <si>
     <t>Gross MRR</t>
-  </si>
-  <si>
-    <t>Jonathan Malcolm</t>
   </si>
   <si>
     <t>Matt Horne</t>
@@ -55,31 +52,13 @@
     <t>Phillip Berta</t>
   </si>
   <si>
-    <t>Mark McCants</t>
-  </si>
-  <si>
     <t>Andrew Ramirez</t>
-  </si>
-  <si>
-    <t>ZGS</t>
-  </si>
-  <si>
-    <t>Rebecca Shaffer</t>
-  </si>
-  <si>
-    <t>Stephen Muoio</t>
   </si>
   <si>
     <t>Carlie Matel</t>
   </si>
   <si>
-    <t>Odaine Hudson</t>
-  </si>
-  <si>
     <t>Mike Miceli</t>
-  </si>
-  <si>
-    <t>Morgan Martensen</t>
   </si>
   <si>
     <t>Natalie Farr</t>
@@ -92,6 +71,24 @@
   </si>
   <si>
     <t>Names</t>
+  </si>
+  <si>
+    <t>RJ Thibodeau</t>
+  </si>
+  <si>
+    <t>Raymond Perry</t>
+  </si>
+  <si>
+    <t>Michelle Pheffer</t>
+  </si>
+  <si>
+    <t>Kathy J Geiser</t>
+  </si>
+  <si>
+    <t>Jeffrey Plank</t>
+  </si>
+  <si>
+    <t>Ashley Waller</t>
   </si>
 </sst>
 </file>
@@ -453,10 +450,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E767A18-B224-4876-B3E8-73F19212E0E1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B845"/>
+  <dimension ref="A1:B654"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A614" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A637" sqref="A637"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +463,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -474,31 +471,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>163.84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -506,7 +503,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -514,7 +511,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -522,127 +519,127 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>81.599999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>87.04</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>61.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>51</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>39.270000000000003</v>
+        <v>212.5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>23.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18">
-        <v>35.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>84.15</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -650,31 +647,31 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>106.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -682,47 +679,47 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>2406.4560000000001</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B30">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>546</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B32">
-        <v>17.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -730,79 +727,79 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>55.62</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>415.7595</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B36">
-        <v>324</v>
+        <v>474.62400000000002</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B37">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>480</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B39">
-        <v>106.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1149.44</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B42">
-        <v>84.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -810,15 +807,15 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B44">
-        <v>8.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -826,39 +823,39 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>695.25</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B48">
-        <v>59</v>
+        <v>92.236500000000007</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B49">
-        <v>63.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -866,23 +863,23 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>45.886499999999998</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -890,7 +887,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -898,15 +895,15 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B55">
-        <v>41.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -914,15 +911,15 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B57">
-        <v>8.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -930,23 +927,23 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B59">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>22.711500000000001</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -954,15 +951,15 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -970,7 +967,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -978,7 +975,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -986,7 +983,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -994,31 +991,31 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>13.384</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>130.01599999999999</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>584.49839999999995</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1026,55 +1023,55 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>468</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>119.5</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B73">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>11.472</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1.673</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1082,15 +1079,15 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>47.322000000000003</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1098,15 +1095,15 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1114,7 +1111,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1122,7 +1119,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1130,7 +1127,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1138,15 +1135,15 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B85">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1154,23 +1151,23 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B87">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1178,34 +1175,34 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1167.4000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>253.5</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B93">
-        <v>42.591999999999999</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1213,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>24000.3</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1229,7 +1226,7 @@
         <v>3</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>639.625</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1237,7 +1234,7 @@
         <v>3</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>765</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1245,7 +1242,7 @@
         <v>3</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1253,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1261,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>920</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1269,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="B101">
-        <v>70.400000000000006</v>
+        <v>450</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1277,12 +1274,12 @@
         <v>3</v>
       </c>
       <c r="B102">
-        <v>11.087999999999999</v>
+        <v>1589.5</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1290,7 +1287,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -1298,39 +1295,39 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>495</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -1338,15 +1335,15 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>339.15</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -1354,15 +1351,15 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -1370,7 +1367,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -1378,7 +1375,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -1386,15 +1383,15 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -1402,39 +1399,39 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B120">
-        <v>295.98079999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B121">
-        <v>173.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -1442,15 +1439,15 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B123">
-        <v>25</v>
+        <v>169.15</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -1458,15 +1455,15 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -1474,31 +1471,31 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B128">
-        <v>432</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>420.75</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -1506,63 +1503,63 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>379.6875</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>633.75</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>1167.4000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>1496.25</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>760</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>345</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>825</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -1570,79 +1567,79 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B139">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B141">
-        <v>19</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B143">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>299.25</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B145">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B147">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -1650,47 +1647,47 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B149">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B151">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B153">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -1698,15 +1695,15 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B155">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -1714,15 +1711,15 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B157">
-        <v>19</v>
+        <v>149.25</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -1730,15 +1727,15 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B159">
-        <v>19</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -1746,31 +1743,31 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B161">
-        <v>19</v>
+        <v>70</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B163">
-        <v>19</v>
+        <v>371.25</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -1778,31 +1775,31 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B165">
-        <v>19</v>
+        <v>19635</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>9240</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B167">
-        <v>19</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -1810,79 +1807,79 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B169">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>2172.5</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B171">
-        <v>19</v>
+        <v>907.5</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>192.5</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B173">
-        <v>19</v>
+        <v>10945</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>32670</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B175">
-        <v>19</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>2152.15</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B177">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -1890,63 +1887,63 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B179">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B181">
-        <v>19</v>
+        <v>6.0499999999999998E-2</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B183">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>547.25</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B185">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -1954,15 +1951,15 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B187">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1970,31 +1967,31 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B189">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>6.0499999999999998E-2</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B191">
-        <v>19</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -2002,15 +1999,15 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B193">
-        <v>19</v>
+        <v>547.25</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -2018,71 +2015,71 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B195">
-        <v>19</v>
+        <v>357.5</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>357.5</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B197">
-        <v>19</v>
+        <v>357.5</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>357.5</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B199">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>65.521184000000005</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B201">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>47.634410000000003</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -2090,23 +2087,23 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B204">
-        <v>0</v>
+        <v>22.947267</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -2114,31 +2111,31 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B207">
-        <v>-145</v>
+        <v>182.56</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B208">
-        <v>-25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -2146,7 +2143,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -2154,23 +2151,23 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>195</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B213">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -2178,47 +2175,47 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B216">
-        <v>40</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B217">
-        <v>45</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B218">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B219">
-        <v>55</v>
+        <v>279.3</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -2226,23 +2223,23 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B222">
-        <v>35.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -2250,23 +2247,23 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B224">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B225">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -2274,7 +2271,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -2282,39 +2279,39 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B228">
-        <v>125</v>
+        <v>51</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B229">
-        <v>59</v>
+        <v>31.875</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B230">
-        <v>59</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B231">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -2322,15 +2319,15 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B233">
-        <v>99</v>
+        <v>35.92</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -2338,31 +2335,31 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B235">
-        <v>8.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>9.35E-2</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -2370,31 +2367,31 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B239">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B240">
-        <v>59</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>106.25</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -2402,7 +2399,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -2410,15 +2407,15 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B244">
-        <v>49</v>
+        <v>84.15</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -2426,7 +2423,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B246">
         <v>8.98</v>
@@ -2434,7 +2431,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -2442,31 +2439,31 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B248">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B249">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B250">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -2474,7 +2471,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -2482,55 +2479,55 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B253">
-        <v>75</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>38.25</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B255">
-        <v>81.599999999999994</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B256">
-        <v>89.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B257">
-        <v>54.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>35.92</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -2538,87 +2535,87 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B260">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B261">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B262">
-        <v>34</v>
+        <v>9.35E-2</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B263">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B264">
-        <v>0.187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B266">
-        <v>0</v>
+        <v>106.25</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B267">
-        <v>106.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B268">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B269">
-        <v>0</v>
+        <v>84.15</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B270">
         <v>0</v>
@@ -2626,23 +2623,23 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B272">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -2650,31 +2647,31 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B274">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B275">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B276">
-        <v>0.187</v>
+        <v>41.65</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -2682,31 +2679,31 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B279">
-        <v>106.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B280">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -2714,55 +2711,55 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B282">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B283">
-        <v>21.25</v>
+        <v>142.80000000000001</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B284">
-        <v>4.25</v>
+        <v>321.3</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B285">
-        <v>0</v>
+        <v>173.4</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>17.850000000000001</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B287">
-        <v>35.92</v>
+        <v>140.25</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -2770,63 +2767,63 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B289">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B290">
-        <v>15</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B291">
-        <v>9.35E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B292">
-        <v>106.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B293">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B294">
-        <v>0</v>
+        <v>9.35E-2</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B295">
-        <v>84.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -2834,23 +2831,23 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B297">
-        <v>8.98</v>
+        <v>106.25</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B298">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -2858,7 +2855,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -2866,7 +2863,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B301">
         <v>0</v>
@@ -2874,15 +2871,15 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B302">
-        <v>0</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -2890,31 +2887,31 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B304">
-        <v>41.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B305">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B306">
-        <v>8.98</v>
+        <v>9.35E-2</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B307">
         <v>0</v>
@@ -2922,7 +2919,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -2930,55 +2927,55 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B309">
-        <v>0</v>
+        <v>106.25</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B310">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B311">
-        <v>40.799999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B312">
-        <v>38.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B313">
-        <v>20.399999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B314">
-        <v>0</v>
+        <v>143.68</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B315">
         <v>0</v>
@@ -2986,15 +2983,15 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B316">
-        <v>35.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B317">
         <v>0</v>
@@ -3002,47 +2999,47 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B318">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B319">
-        <v>15</v>
+        <v>9.35E-2</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B320">
-        <v>9.35E-2</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B321">
-        <v>0</v>
+        <v>106.25</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B322">
-        <v>42.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B323">
         <v>0</v>
@@ -3050,23 +3047,23 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B324">
-        <v>106.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B325">
-        <v>0</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -3074,31 +3071,31 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B327">
-        <v>84.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B328">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B329">
-        <v>8.98</v>
+        <v>9.35E-2</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -3106,7 +3103,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B331">
         <v>0</v>
@@ -3114,31 +3111,31 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B332">
-        <v>0</v>
+        <v>106.25</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B333">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B334">
-        <v>41.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B335">
         <v>0</v>
@@ -3146,15 +3143,15 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B336">
-        <v>8.98</v>
+        <v>339.15</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B337">
         <v>0</v>
@@ -3162,15 +3159,15 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B338">
-        <v>0</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -3178,7 +3175,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B340">
         <v>0</v>
@@ -3186,31 +3183,31 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B341">
-        <v>61.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B342">
-        <v>38.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B343">
-        <v>20.399999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B344">
         <v>0</v>
@@ -3218,7 +3215,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B345">
         <v>0</v>
@@ -3226,15 +3223,15 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B346">
-        <v>35.92</v>
+        <v>169.15</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B347">
         <v>0</v>
@@ -3242,63 +3239,63 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B348">
-        <v>0</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B349">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B350">
-        <v>9.35E-2</v>
+        <v>170</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B351">
-        <v>0</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B352">
-        <v>0</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B353">
-        <v>42.5</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B354">
-        <v>106.25</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -3306,7 +3303,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -3314,15 +3311,15 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B357">
-        <v>84.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B358">
         <v>0</v>
@@ -3330,79 +3327,79 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B359">
-        <v>8.98</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B360">
-        <v>0</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B361">
-        <v>0</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B362">
-        <v>0</v>
+        <v>-19.8</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B363">
-        <v>0</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B364">
-        <v>41.65</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B365">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B366">
-        <v>8.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B367">
-        <v>0</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B368">
         <v>0</v>
@@ -3410,7 +3407,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B369">
         <v>0</v>
@@ -3418,63 +3415,63 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B370">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B371">
-        <v>15.3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B372">
-        <v>10.199999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B373">
-        <v>10.199999999999999</v>
+        <v>120</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B374">
-        <v>6.375</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B375">
-        <v>35.36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B376">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B377">
         <v>0</v>
@@ -3482,23 +3479,23 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B378">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B379">
-        <v>212.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B380">
         <v>0</v>
@@ -3506,15 +3503,15 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B381">
-        <v>84.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -3522,31 +3519,31 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B383">
-        <v>8.98</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B384">
-        <v>0</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B385">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B386">
         <v>0</v>
@@ -3554,7 +3551,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B387">
         <v>0</v>
@@ -3562,15 +3559,15 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B388">
-        <v>0</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B389">
         <v>0</v>
@@ -3578,39 +3575,39 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B390">
-        <v>61.2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B391">
-        <v>38.25</v>
+        <v>324</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B392">
-        <v>20.399999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B393">
-        <v>0</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B394">
         <v>0</v>
@@ -3618,23 +3615,23 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B395">
-        <v>35.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B396">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B397">
         <v>0</v>
@@ -3642,23 +3639,23 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B398">
-        <v>15</v>
+        <v>81.599999999999994</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B399">
-        <v>9.35E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B400">
         <v>0</v>
@@ -3666,31 +3663,31 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B401">
-        <v>0</v>
+        <v>-153</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B402">
-        <v>42.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B403">
-        <v>106.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -3698,7 +3695,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B405">
         <v>0</v>
@@ -3706,15 +3703,15 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B406">
-        <v>84.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B407">
         <v>0</v>
@@ -3722,15 +3719,15 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B408">
-        <v>8.98</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B409">
         <v>0</v>
@@ -3738,7 +3735,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -3746,7 +3743,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B411">
         <v>0</v>
@@ -3754,7 +3751,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B412">
         <v>0</v>
@@ -3762,15 +3759,15 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B413">
-        <v>41.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -3778,15 +3775,15 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B415">
-        <v>8.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B416">
         <v>0</v>
@@ -3794,7 +3791,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B417">
         <v>0</v>
@@ -3802,7 +3799,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B418">
         <v>0</v>
@@ -3810,39 +3807,39 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B419">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B420">
-        <v>61.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B421">
-        <v>38.25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B422">
-        <v>20.399999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B423">
         <v>0</v>
@@ -3850,23 +3847,23 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B424">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B425">
-        <v>35.92</v>
+        <v>250</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B426">
         <v>0</v>
@@ -3874,31 +3871,31 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B427">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B428">
-        <v>15</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B429">
-        <v>9.35E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B430">
         <v>0</v>
@@ -3906,15 +3903,15 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B431">
-        <v>42.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B432">
         <v>0</v>
@@ -3922,15 +3919,15 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B433">
-        <v>106.25</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B434">
         <v>0</v>
@@ -3938,7 +3935,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B435">
         <v>0</v>
@@ -3946,15 +3943,15 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B436">
-        <v>84.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B437">
         <v>0</v>
@@ -3962,15 +3959,15 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B438">
-        <v>8.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B439">
         <v>0</v>
@@ -3978,15 +3975,15 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B440">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B441">
         <v>0</v>
@@ -3994,95 +3991,95 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B442">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B443">
-        <v>41.65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B444">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B445">
-        <v>8.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B446">
-        <v>0</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B447">
-        <v>0</v>
+        <v>60.75</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B448">
-        <v>0</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B449">
-        <v>0</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B450">
-        <v>61.2</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B451">
-        <v>38.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B452">
-        <v>20.399999999999999</v>
+        <v>40</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B453">
         <v>0</v>
@@ -4090,31 +4087,31 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B454">
-        <v>0</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B455">
-        <v>35.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B456">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B457">
         <v>0</v>
@@ -4122,63 +4119,63 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B458">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B459">
-        <v>9.35E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B460">
-        <v>0</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B461">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B462">
-        <v>42.5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B463">
-        <v>106.25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B464">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B465">
         <v>0</v>
@@ -4186,39 +4183,39 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B466">
-        <v>84.15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B467">
-        <v>0</v>
+        <v>324</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B468">
-        <v>8.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B469">
-        <v>0</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B470">
         <v>0</v>
@@ -4226,7 +4223,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B471">
         <v>0</v>
@@ -4234,7 +4231,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B472">
         <v>0</v>
@@ -4242,15 +4239,15 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B473">
-        <v>41.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B474">
         <v>0</v>
@@ -4258,15 +4255,15 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B475">
-        <v>8.98</v>
+        <v>15</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B476">
         <v>0</v>
@@ -4274,7 +4271,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B477">
         <v>0</v>
@@ -4282,87 +4279,87 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B478">
-        <v>0</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B479">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B480">
-        <v>18.54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B481">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B482">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B483">
-        <v>29.664000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B484">
-        <v>44.496000000000002</v>
+        <v>44.55</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B485">
-        <v>8.4357000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B486">
-        <v>0</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B487">
-        <v>40.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B488">
         <v>0</v>
@@ -4370,50 +4367,50 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B489">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B490">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B491">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B492">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B493">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B494">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -4421,7 +4418,7 @@
         <v>3</v>
       </c>
       <c r="B495">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -4429,7 +4426,7 @@
         <v>3</v>
       </c>
       <c r="B496">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -4437,7 +4434,7 @@
         <v>3</v>
       </c>
       <c r="B497">
-        <v>8.3982639999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -4445,7 +4442,7 @@
         <v>3</v>
       </c>
       <c r="B498">
-        <v>7.8</v>
+        <v>22.05</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -4453,7 +4450,7 @@
         <v>3</v>
       </c>
       <c r="B499">
-        <v>11.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -4461,7 +4458,7 @@
         <v>3</v>
       </c>
       <c r="B500">
-        <v>0</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -4469,7 +4466,7 @@
         <v>3</v>
       </c>
       <c r="B501">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -4477,7 +4474,7 @@
         <v>3</v>
       </c>
       <c r="B502">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -4485,7 +4482,7 @@
         <v>3</v>
       </c>
       <c r="B503">
-        <v>17.96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -4493,20 +4490,20 @@
         <v>3</v>
       </c>
       <c r="B504">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B505">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B506">
         <v>0</v>
@@ -4514,7 +4511,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B507">
         <v>0</v>
@@ -4522,23 +4519,23 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B508">
-        <v>125</v>
+        <v>24.076250000000002</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B509">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B510">
         <v>0</v>
@@ -4546,15 +4543,15 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B511">
-        <v>3884.36</v>
+        <v>169</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B512">
         <v>0</v>
@@ -4562,47 +4559,47 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B513">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B514">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B515">
-        <v>0</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B516">
-        <v>2145</v>
+        <v>300</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B517">
-        <v>134.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B518">
         <v>0</v>
@@ -4610,55 +4607,55 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B519">
-        <v>12.912000000000001</v>
+        <v>165</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B520">
-        <v>16.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B521">
-        <v>5.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B522">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B523">
-        <v>214.66200000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B524">
-        <v>17.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B525">
         <v>0</v>
@@ -4666,23 +4663,23 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B526">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B527">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B528">
         <v>0</v>
@@ -4690,7 +4687,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B529">
         <v>0</v>
@@ -4698,23 +4695,23 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B530">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B531">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B532">
         <v>0</v>
@@ -4722,7 +4719,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B533">
         <v>0</v>
@@ -4730,15 +4727,15 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B534">
-        <v>3856.91</v>
+        <v>42</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B535">
         <v>0</v>
@@ -4746,15 +4743,15 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B536">
-        <v>2457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B537">
         <v>0</v>
@@ -4762,23 +4759,23 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B538">
-        <v>6776</v>
+        <v>9</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B539">
-        <v>1470</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B540">
         <v>0</v>
@@ -4786,31 +4783,31 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B541">
-        <v>9.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B542">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B543">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B544">
         <v>0</v>
@@ -4818,7 +4815,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B545">
         <v>0</v>
@@ -4826,15 +4823,15 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B546">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B547">
         <v>0</v>
@@ -4842,15 +4839,15 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B548">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B549">
         <v>0</v>
@@ -4858,31 +4855,31 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B550">
-        <v>43.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B551">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B552">
-        <v>348.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B553">
         <v>0</v>
@@ -4890,23 +4887,23 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B554">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B555">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B556">
         <v>0</v>
@@ -4914,7 +4911,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B557">
         <v>0</v>
@@ -4922,7 +4919,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B558">
         <v>0</v>
@@ -4930,15 +4927,15 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B559">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B560">
         <v>0</v>
@@ -4946,15 +4943,15 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B561">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B562">
         <v>0</v>
@@ -4962,23 +4959,23 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B563">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B564">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B565">
         <v>0</v>
@@ -4986,7 +4983,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B566">
         <v>0</v>
@@ -4994,47 +4991,47 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B567">
-        <v>15</v>
+        <v>675</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B568">
-        <v>0</v>
+        <v>225</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B569">
-        <v>0</v>
+        <v>504</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B570">
-        <v>0</v>
+        <v>416.5</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B571">
-        <v>43.75</v>
+        <v>270</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B572">
         <v>0</v>
@@ -5042,135 +5039,135 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B573">
-        <v>26.25</v>
+        <v>81</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B574">
-        <v>27.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B575">
-        <v>11.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B576">
-        <v>2.4500000000000002</v>
+        <v>45</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B577">
-        <v>139.30000000000001</v>
+        <v>531</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B578">
-        <v>415.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B579">
-        <v>105</v>
+        <v>-680.8</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B580">
-        <v>0</v>
+        <v>169.28</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B581">
-        <v>0</v>
+        <v>285.66000000000003</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B582">
-        <v>26.25</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B583">
-        <v>27.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B584">
-        <v>11.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B585">
-        <v>2.4500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B586">
-        <v>139.30000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B587">
-        <v>415.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B588">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B589">
         <v>0</v>
@@ -5178,7 +5175,7 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B590">
         <v>0</v>
@@ -5186,63 +5183,63 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B591">
-        <v>26.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B592">
-        <v>27.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B593">
-        <v>11.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B594">
-        <v>2.4500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B595">
-        <v>139.30000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B596">
-        <v>415.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B597">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B598">
         <v>0</v>
@@ -5250,7 +5247,7 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B599">
         <v>0</v>
@@ -5258,63 +5255,63 @@
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B600">
-        <v>26.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B601">
-        <v>27.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B602">
-        <v>11.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B603">
-        <v>2.4500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B604">
-        <v>139.30000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B605">
-        <v>415.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B606">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B607">
         <v>0</v>
@@ -5322,7 +5319,7 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B608">
         <v>0</v>
@@ -5330,63 +5327,63 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B609">
-        <v>26.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B610">
-        <v>27.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B611">
-        <v>11.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B612">
-        <v>2.4500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B613">
-        <v>139.30000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B614">
-        <v>415.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B615">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B616">
         <v>0</v>
@@ -5394,7 +5391,7 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B617">
         <v>0</v>
@@ -5402,7 +5399,7 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B618">
         <v>0</v>
@@ -5410,15 +5407,15 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B619">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B620">
         <v>0</v>
@@ -5426,7 +5423,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B621">
         <v>0</v>
@@ -5434,31 +5431,31 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B622">
-        <v>-59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B623">
-        <v>-79.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B624">
-        <v>-59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B625">
         <v>0</v>
@@ -5466,7 +5463,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B626">
         <v>0</v>
@@ -5474,1754 +5471,226 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B627">
-        <v>339.15</v>
+        <v>-8.0960000000000001</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B628">
-        <v>0</v>
+        <v>-82.5</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B629">
-        <v>8.98</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B630">
-        <v>0</v>
+        <v>-8.0960000000000001</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B631">
-        <v>0</v>
+        <v>-18.584</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B632">
-        <v>0</v>
+        <v>-8.0960000000000001</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B633">
-        <v>59</v>
+        <v>-50.6</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B634">
-        <v>59</v>
+        <v>-50.6</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B635">
-        <v>0</v>
+        <v>-8.0960000000000001</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B636">
-        <v>0</v>
+        <v>-8.0960000000000001</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B637">
-        <v>100</v>
+        <v>-2.024</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B638">
-        <v>100</v>
+        <v>-2.024</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B639">
-        <v>0</v>
+        <v>-8.0960000000000001</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B640">
-        <v>25</v>
+        <v>-8.0960000000000001</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B641">
-        <v>25</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B642">
-        <v>0</v>
+        <v>-50.6</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B643">
-        <v>64</v>
+        <v>-5.8696000000000002</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B644">
-        <v>112</v>
+        <v>-8.0960000000000001</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B645">
-        <v>0</v>
+        <v>-8.0960000000000001</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B646">
-        <v>46</v>
+        <v>-50.6</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B647">
-        <v>0</v>
+        <v>-5.8696000000000002</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B648">
-        <v>40</v>
+        <v>-5.8696000000000002</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B649">
-        <v>0</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B650">
-        <v>71.84</v>
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B651">
-        <v>0</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B652">
-        <v>299</v>
+        <v>144</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B653">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B654">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A655" t="s">
-        <v>3</v>
-      </c>
-      <c r="B655">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A656" t="s">
-        <v>3</v>
-      </c>
-      <c r="B656">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A657" t="s">
-        <v>3</v>
-      </c>
-      <c r="B657">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A658" t="s">
-        <v>3</v>
-      </c>
-      <c r="B658">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A659" t="s">
-        <v>3</v>
-      </c>
-      <c r="B659">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A660" t="s">
-        <v>3</v>
-      </c>
-      <c r="B660">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A661" t="s">
-        <v>3</v>
-      </c>
-      <c r="B661">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A662" t="s">
-        <v>3</v>
-      </c>
-      <c r="B662">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A663" t="s">
-        <v>3</v>
-      </c>
-      <c r="B663">
-        <v>71.84</v>
-      </c>
-    </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A664" t="s">
-        <v>3</v>
-      </c>
-      <c r="B664">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A665" t="s">
-        <v>3</v>
-      </c>
-      <c r="B665">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A666" t="s">
-        <v>3</v>
-      </c>
-      <c r="B666">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A667" t="s">
-        <v>3</v>
-      </c>
-      <c r="B667">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A668" t="s">
-        <v>3</v>
-      </c>
-      <c r="B668">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A669" t="s">
-        <v>3</v>
-      </c>
-      <c r="B669">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A670" t="s">
-        <v>3</v>
-      </c>
-      <c r="B670">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A671" t="s">
-        <v>3</v>
-      </c>
-      <c r="B671">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A672" t="s">
-        <v>3</v>
-      </c>
-      <c r="B672">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A673" t="s">
-        <v>3</v>
-      </c>
-      <c r="B673">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A674" t="s">
-        <v>3</v>
-      </c>
-      <c r="B674">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A675" t="s">
-        <v>3</v>
-      </c>
-      <c r="B675">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A676" t="s">
-        <v>3</v>
-      </c>
-      <c r="B676">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A677" t="s">
-        <v>7</v>
-      </c>
-      <c r="B677">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A678" t="s">
-        <v>7</v>
-      </c>
-      <c r="B678">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A679" t="s">
-        <v>12</v>
-      </c>
-      <c r="B679">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A680" t="s">
-        <v>12</v>
-      </c>
-      <c r="B680">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A681" t="s">
-        <v>12</v>
-      </c>
-      <c r="B681">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A682" t="s">
-        <v>12</v>
-      </c>
-      <c r="B682">
-        <v>22.45</v>
-      </c>
-    </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A683" t="s">
-        <v>12</v>
-      </c>
-      <c r="B683">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A684" t="s">
-        <v>12</v>
-      </c>
-      <c r="B684">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A685" t="s">
-        <v>12</v>
-      </c>
-      <c r="B685">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A686" t="s">
-        <v>12</v>
-      </c>
-      <c r="B686">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A687" t="s">
-        <v>12</v>
-      </c>
-      <c r="B687">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A688" t="s">
-        <v>12</v>
-      </c>
-      <c r="B688">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A689" t="s">
-        <v>12</v>
-      </c>
-      <c r="B689">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A690" t="s">
-        <v>12</v>
-      </c>
-      <c r="B690">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A691" t="s">
-        <v>12</v>
-      </c>
-      <c r="B691">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A692" t="s">
-        <v>12</v>
-      </c>
-      <c r="B692">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A693" t="s">
-        <v>12</v>
-      </c>
-      <c r="B693">
-        <v>8.98</v>
-      </c>
-    </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A694" t="s">
-        <v>12</v>
-      </c>
-      <c r="B694">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A695" t="s">
-        <v>12</v>
-      </c>
-      <c r="B695">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A696" t="s">
-        <v>12</v>
-      </c>
-      <c r="B696">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A697" t="s">
-        <v>12</v>
-      </c>
-      <c r="B697">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A698" t="s">
-        <v>12</v>
-      </c>
-      <c r="B698">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A699" t="s">
-        <v>12</v>
-      </c>
-      <c r="B699">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A700" t="s">
-        <v>12</v>
-      </c>
-      <c r="B700">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A701" t="s">
-        <v>10</v>
-      </c>
-      <c r="B701">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A702" t="s">
-        <v>4</v>
-      </c>
-      <c r="B702">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A703" t="s">
-        <v>4</v>
-      </c>
-      <c r="B703">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A704" t="s">
-        <v>4</v>
-      </c>
-      <c r="B704">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A705" t="s">
-        <v>4</v>
-      </c>
-      <c r="B705">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A706" t="s">
-        <v>7</v>
-      </c>
-      <c r="B706">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A707" t="s">
-        <v>7</v>
-      </c>
-      <c r="B707">
-        <v>182.52</v>
-      </c>
-    </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A708" t="s">
-        <v>7</v>
-      </c>
-      <c r="B708">
-        <v>765.85799999999995</v>
-      </c>
-    </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A709" t="s">
-        <v>7</v>
-      </c>
-      <c r="B709">
-        <v>765.85799999999995</v>
-      </c>
-    </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A710" t="s">
-        <v>7</v>
-      </c>
-      <c r="B710">
-        <v>31.007999999999999</v>
-      </c>
-    </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A711" t="s">
-        <v>7</v>
-      </c>
-      <c r="B711">
-        <v>23.04</v>
-      </c>
-    </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A712" t="s">
-        <v>7</v>
-      </c>
-      <c r="B712">
-        <v>-1063.204</v>
-      </c>
-    </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A713" t="s">
-        <v>7</v>
-      </c>
-      <c r="B713">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A714" t="s">
-        <v>13</v>
-      </c>
-      <c r="B714">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A715" t="s">
-        <v>13</v>
-      </c>
-      <c r="B715">
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A716" t="s">
-        <v>13</v>
-      </c>
-      <c r="B716">
-        <v>817.5</v>
-      </c>
-    </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A717" t="s">
-        <v>13</v>
-      </c>
-      <c r="B717">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A718" t="s">
-        <v>13</v>
-      </c>
-      <c r="B718">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A719" t="s">
-        <v>13</v>
-      </c>
-      <c r="B719">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A720" t="s">
-        <v>13</v>
-      </c>
-      <c r="B720">
-        <v>19.6875</v>
-      </c>
-    </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A721" t="s">
-        <v>13</v>
-      </c>
-      <c r="B721">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A722" t="s">
-        <v>13</v>
-      </c>
-      <c r="B722">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A723" t="s">
-        <v>13</v>
-      </c>
-      <c r="B723">
-        <v>2535</v>
-      </c>
-    </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A724" t="s">
-        <v>13</v>
-      </c>
-      <c r="B724">
-        <v>187.5</v>
-      </c>
-    </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A725" t="s">
-        <v>13</v>
-      </c>
-      <c r="B725">
-        <v>746.25</v>
-      </c>
-    </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A726" t="s">
-        <v>13</v>
-      </c>
-      <c r="B726">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A727" t="s">
-        <v>13</v>
-      </c>
-      <c r="B727">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A728" t="s">
-        <v>13</v>
-      </c>
-      <c r="B728">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A729" t="s">
-        <v>13</v>
-      </c>
-      <c r="B729">
-        <v>13.47</v>
-      </c>
-    </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A730" t="s">
-        <v>13</v>
-      </c>
-      <c r="B730">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A731" t="s">
-        <v>13</v>
-      </c>
-      <c r="B731">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A732" t="s">
-        <v>13</v>
-      </c>
-      <c r="B732">
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A733" t="s">
-        <v>13</v>
-      </c>
-      <c r="B733">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A734" t="s">
-        <v>13</v>
-      </c>
-      <c r="B734">
-        <v>299.25</v>
-      </c>
-    </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A735" t="s">
-        <v>13</v>
-      </c>
-      <c r="B735">
-        <v>17.96</v>
-      </c>
-    </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A736" t="s">
-        <v>13</v>
-      </c>
-      <c r="B736">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A737" t="s">
-        <v>13</v>
-      </c>
-      <c r="B737">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A738" t="s">
-        <v>13</v>
-      </c>
-      <c r="B738">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A739" t="s">
-        <v>13</v>
-      </c>
-      <c r="B739">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A740" t="s">
-        <v>13</v>
-      </c>
-      <c r="B740">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A741" t="s">
-        <v>13</v>
-      </c>
-      <c r="B741">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A742" t="s">
-        <v>13</v>
-      </c>
-      <c r="B742">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A743" t="s">
-        <v>13</v>
-      </c>
-      <c r="B743">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A744" t="s">
-        <v>1</v>
-      </c>
-      <c r="B744">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A745" t="s">
-        <v>1</v>
-      </c>
-      <c r="B745">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A746" t="s">
-        <v>1</v>
-      </c>
-      <c r="B746">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A747" t="s">
-        <v>1</v>
-      </c>
-      <c r="B747">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A748" t="s">
-        <v>1</v>
-      </c>
-      <c r="B748">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A749" t="s">
-        <v>1</v>
-      </c>
-      <c r="B749">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A750" t="s">
-        <v>1</v>
-      </c>
-      <c r="B750">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A751" t="s">
-        <v>1</v>
-      </c>
-      <c r="B751">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A752" t="s">
-        <v>1</v>
-      </c>
-      <c r="B752">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A753" t="s">
-        <v>1</v>
-      </c>
-      <c r="B753">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A754" t="s">
-        <v>1</v>
-      </c>
-      <c r="B754">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A755" t="s">
-        <v>1</v>
-      </c>
-      <c r="B755">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A756" t="s">
-        <v>1</v>
-      </c>
-      <c r="B756">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A757" t="s">
-        <v>1</v>
-      </c>
-      <c r="B757">
-        <v>8.98</v>
-      </c>
-    </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A758" t="s">
-        <v>1</v>
-      </c>
-      <c r="B758">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A759" t="s">
-        <v>1</v>
-      </c>
-      <c r="B759">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A760" t="s">
-        <v>1</v>
-      </c>
-      <c r="B760">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A761" t="s">
-        <v>1</v>
-      </c>
-      <c r="B761">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A762" t="s">
-        <v>1</v>
-      </c>
-      <c r="B762">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A763" t="s">
-        <v>1</v>
-      </c>
-      <c r="B763">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A764" t="s">
-        <v>1</v>
-      </c>
-      <c r="B764">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A765" t="s">
-        <v>1</v>
-      </c>
-      <c r="B765">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A766" t="s">
-        <v>1</v>
-      </c>
-      <c r="B766">
-        <v>8.98</v>
-      </c>
-    </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A767" t="s">
-        <v>1</v>
-      </c>
-      <c r="B767">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A768" t="s">
-        <v>13</v>
-      </c>
-      <c r="B768">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A769" t="s">
-        <v>3</v>
-      </c>
-      <c r="B769">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A770" t="s">
-        <v>3</v>
-      </c>
-      <c r="B770">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A771" t="s">
-        <v>3</v>
-      </c>
-      <c r="B771">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A772" t="s">
-        <v>3</v>
-      </c>
-      <c r="B772">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A773" t="s">
-        <v>3</v>
-      </c>
-      <c r="B773">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A774" t="s">
-        <v>3</v>
-      </c>
-      <c r="B774">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A775" t="s">
-        <v>3</v>
-      </c>
-      <c r="B775">
-        <v>35.92</v>
-      </c>
-    </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A776" t="s">
-        <v>3</v>
-      </c>
-      <c r="B776">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A777" t="s">
-        <v>4</v>
-      </c>
-      <c r="B777">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A778" t="s">
-        <v>4</v>
-      </c>
-      <c r="B778">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A779" t="s">
-        <v>4</v>
-      </c>
-      <c r="B779">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A780" t="s">
-        <v>4</v>
-      </c>
-      <c r="B780">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A781" t="s">
-        <v>4</v>
-      </c>
-      <c r="B781">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A782" t="s">
-        <v>4</v>
-      </c>
-      <c r="B782">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A783" t="s">
-        <v>4</v>
-      </c>
-      <c r="B783">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A784" t="s">
-        <v>4</v>
-      </c>
-      <c r="B784">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A785" t="s">
-        <v>4</v>
-      </c>
-      <c r="B785">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A786" t="s">
-        <v>4</v>
-      </c>
-      <c r="B786">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A787" t="s">
-        <v>4</v>
-      </c>
-      <c r="B787">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A788" t="s">
-        <v>4</v>
-      </c>
-      <c r="B788">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A789" t="s">
-        <v>4</v>
-      </c>
-      <c r="B789">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A790" t="s">
-        <v>4</v>
-      </c>
-      <c r="B790">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A791" t="s">
-        <v>4</v>
-      </c>
-      <c r="B791">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A792" t="s">
-        <v>4</v>
-      </c>
-      <c r="B792">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A793" t="s">
-        <v>4</v>
-      </c>
-      <c r="B793">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A794" t="s">
-        <v>4</v>
-      </c>
-      <c r="B794">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A795" t="s">
-        <v>4</v>
-      </c>
-      <c r="B795">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A796" t="s">
-        <v>4</v>
-      </c>
-      <c r="B796">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A797" t="s">
-        <v>4</v>
-      </c>
-      <c r="B797">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A798" t="s">
-        <v>4</v>
-      </c>
-      <c r="B798">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A799" t="s">
-        <v>14</v>
-      </c>
-      <c r="B799">
-        <v>365.5</v>
-      </c>
-    </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A800" t="s">
-        <v>14</v>
-      </c>
-      <c r="B800">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A801" t="s">
-        <v>14</v>
-      </c>
-      <c r="B801">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A802" t="s">
-        <v>14</v>
-      </c>
-      <c r="B802">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A803" t="s">
-        <v>14</v>
-      </c>
-      <c r="B803">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A804" t="s">
-        <v>14</v>
-      </c>
-      <c r="B804">
-        <v>-1843.2</v>
-      </c>
-    </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A805" t="s">
-        <v>14</v>
-      </c>
-      <c r="B805">
-        <v>-375</v>
-      </c>
-    </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A806" t="s">
-        <v>14</v>
-      </c>
-      <c r="B806">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A807" t="s">
-        <v>15</v>
-      </c>
-      <c r="B807">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A808" t="s">
-        <v>15</v>
-      </c>
-      <c r="B808">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A809" t="s">
-        <v>15</v>
-      </c>
-      <c r="B809">
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A810" t="s">
-        <v>15</v>
-      </c>
-      <c r="B810">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A811" t="s">
-        <v>15</v>
-      </c>
-      <c r="B811">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A812" t="s">
-        <v>15</v>
-      </c>
-      <c r="B812">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A813" t="s">
-        <v>15</v>
-      </c>
-      <c r="B813">
-        <v>8.98</v>
-      </c>
-    </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A814" t="s">
-        <v>15</v>
-      </c>
-      <c r="B814">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A815" t="s">
-        <v>15</v>
-      </c>
-      <c r="B815">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A816" t="s">
-        <v>15</v>
-      </c>
-      <c r="B816">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A817" t="s">
-        <v>15</v>
-      </c>
-      <c r="B817">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A818" t="s">
-        <v>4</v>
-      </c>
-      <c r="B818">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A819" t="s">
-        <v>4</v>
-      </c>
-      <c r="B819">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A820" t="s">
-        <v>4</v>
-      </c>
-      <c r="B820">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A821" t="s">
-        <v>4</v>
-      </c>
-      <c r="B821">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A822" t="s">
-        <v>4</v>
-      </c>
-      <c r="B822">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A823" t="s">
-        <v>4</v>
-      </c>
-      <c r="B823">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A824" t="s">
-        <v>4</v>
-      </c>
-      <c r="B824">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A825" t="s">
-        <v>4</v>
-      </c>
-      <c r="B825">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A826" t="s">
-        <v>4</v>
-      </c>
-      <c r="B826">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A827" t="s">
-        <v>4</v>
-      </c>
-      <c r="B827">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A828" t="s">
-        <v>4</v>
-      </c>
-      <c r="B828">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A829" t="s">
-        <v>4</v>
-      </c>
-      <c r="B829">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A830" t="s">
-        <v>4</v>
-      </c>
-      <c r="B830">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A831" t="s">
-        <v>4</v>
-      </c>
-      <c r="B831">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A832" t="s">
-        <v>4</v>
-      </c>
-      <c r="B832">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A833" t="s">
-        <v>4</v>
-      </c>
-      <c r="B833">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A834" t="s">
-        <v>4</v>
-      </c>
-      <c r="B834">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A835" t="s">
-        <v>4</v>
-      </c>
-      <c r="B835">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A836" t="s">
-        <v>4</v>
-      </c>
-      <c r="B836">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A837" t="s">
-        <v>4</v>
-      </c>
-      <c r="B837">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A838" t="s">
-        <v>4</v>
-      </c>
-      <c r="B838">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A839" t="s">
-        <v>4</v>
-      </c>
-      <c r="B839">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A840" t="s">
-        <v>10</v>
-      </c>
-      <c r="B840">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A841" t="s">
-        <v>16</v>
-      </c>
-      <c r="B841">
-        <v>21.74</v>
-      </c>
-    </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A842" t="s">
-        <v>16</v>
-      </c>
-      <c r="B842">
-        <v>21.74</v>
-      </c>
-    </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A843" t="s">
-        <v>2</v>
-      </c>
-      <c r="B843">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A844" t="s">
-        <v>15</v>
-      </c>
-      <c r="B844">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A845" t="s">
-        <v>14</v>
-      </c>
-      <c r="B845">
-        <v>8.08</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
